--- a/app/logs/predictions.xlsx
+++ b/app/logs/predictions.xlsx
@@ -463,19 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9  0.9  0.9
- 0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5  0.5  0.76 0.97 0.87
+ 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 2]</t>
+          <t>[1 0 1 0 7]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.43 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5  0.5  0.76 0.97 0.87
+ 0.57 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -483,15 +483,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 7 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.43 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5  0.5  0.76 0.97 0.87
+ 0.57 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -501,8 +501,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5  0.5  0.76 0.97 0.87
+ 0.43 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -517,208 +517,208 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5  0.5  0.76 0.97 0.87
+ 0.43 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 1 0 0 5]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.87
+ 0.43 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 0 Tire 5 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.87
+ 0.43 0.07 0.04 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[0 1 6]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.87
+ 0.43 0.07 1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.57 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.87
+ 0.43 0.07 1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 1 0 3]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.57
+ 0.43 0.07 1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 3 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.57
+ 0.43 0.07 1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[0 1 5]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 5 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.7  0.76 0.97 0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 1 1 0 2]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.6  0.7  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 2 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.87 0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   1.   0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 1 0 6]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -726,26 +726,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -753,26 +753,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -780,26 +780,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -807,26 +807,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -834,26 +834,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -861,26 +861,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -888,26 +888,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -915,26 +915,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -942,26 +942,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -969,26 +969,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1 0 0 1 6]</t>
+          <t>[1 0 0 1 4]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.01 0.9
- 0.01 0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[1.   0.7  0.6  0.7  0.7  0.5  0.4  0.3  0.3  0.5  0.97 0.76 0.7  0.57
+ 0.43 1.   0.87 0.05 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
     </row>
